--- a/I_Quarter/Manual_Testing_Basics/Homework/Practical_task_update_22.11.21.xlsx
+++ b/I_Quarter/Manual_Testing_Basics/Homework/Practical_task_update_22.11.21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="588" windowWidth="22716" windowHeight="8940" activeTab="2"/>
+    <workbookView xWindow="132" yWindow="588" windowWidth="22716" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист" sheetId="1" r:id="rId1"/>
@@ -245,6 +245,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Логотипы GeekBrains, </t>
     </r>
@@ -254,6 +256,8 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Mail.ru</t>
     </r>
@@ -262,6 +266,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Group отображаются корректно</t>
     </r>
@@ -521,6 +527,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">1. Перейти на сайт </t>
     </r>
@@ -530,6 +538,8 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>http://185.241.195.105:82/#</t>
     </r>
@@ -818,7 +828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -829,44 +839,60 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -878,33 +904,52 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFCCCCCC"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCCCCCC"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCCCCCC"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1421,28 +1466,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1455,19 +1500,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1481,7 +1526,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1493,14 +1538,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3855,7 +3900,9 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3908,7 +3955,7 @@
       <c r="A2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="80" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -3944,13 +3991,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="75"/>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="77" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="74" t="s">
         <v>95</v>
       </c>
       <c r="F3" s="3"/>
@@ -4067,7 +4114,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1">
+    <row r="7" spans="1:25" ht="30.6" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>101</v>
       </c>
@@ -4105,13 +4152,13 @@
         <v>104</v>
       </c>
       <c r="B8" s="75"/>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="77" t="s">
         <v>105</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="74" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="3"/>
@@ -4229,7 +4276,7 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="78" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="75"/>
@@ -4382,7 +4429,7 @@
       <c r="A17" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="80" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -4545,7 +4592,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1">
+    <row r="22" spans="1:25" ht="25.2" customHeight="1">
       <c r="A22" s="17" t="s">
         <v>101</v>
       </c>
@@ -4699,7 +4746,7 @@
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="79" t="s">
         <v>133</v>
       </c>
       <c r="B27" s="75"/>
@@ -4848,7 +4895,7 @@
       <c r="A32" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="81" t="s">
         <v>135</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -5169,7 +5216,7 @@
       <c r="Y41" s="3"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="82" t="s">
         <v>112</v>
       </c>
       <c r="B42" s="75"/>
@@ -6234,16 +6281,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:B45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="C3:C6"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B17:B30"/>
-    <mergeCell ref="B32:B45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="A4 A19 A34">
@@ -6271,7 +6318,7 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
@@ -6334,14 +6381,14 @@
         <v>155</v>
       </c>
       <c r="C2" s="87"/>
-      <c r="D2" s="74"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="80" t="s">
         <v>158</v>
       </c>
       <c r="H2" s="28"/>
@@ -6528,7 +6575,7 @@
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="80" t="s">
         <v>164</v>
       </c>
       <c r="E8" s="24"/>
@@ -6693,7 +6740,7 @@
         <v>165</v>
       </c>
       <c r="C13" s="87"/>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="92" t="s">
         <v>166</v>
       </c>
       <c r="E13" s="25" t="s">
@@ -6959,7 +7006,7 @@
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="91" t="s">
         <v>177</v>
       </c>
       <c r="E21" s="24"/>
@@ -7064,13 +7111,13 @@
         <v>178</v>
       </c>
       <c r="C24" s="87"/>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="92" t="s">
         <v>166</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="80" t="s">
         <v>180</v>
       </c>
       <c r="G24" s="34" t="s">
@@ -7324,7 +7371,7 @@
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="90" t="s">
+      <c r="D32" s="91" t="s">
         <v>177</v>
       </c>
       <c r="E32" s="24"/>
@@ -7429,7 +7476,7 @@
         <v>184</v>
       </c>
       <c r="C35" s="87"/>
-      <c r="D35" s="88" t="s">
+      <c r="D35" s="92" t="s">
         <v>166</v>
       </c>
       <c r="E35" s="25" t="s">
@@ -7701,7 +7748,7 @@
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
-      <c r="D43" s="90" t="s">
+      <c r="D43" s="91" t="s">
         <v>177</v>
       </c>
       <c r="E43" s="24"/>
@@ -7815,7 +7862,7 @@
       <c r="F46" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="G46" s="74" t="s">
+      <c r="G46" s="80" t="s">
         <v>199</v>
       </c>
       <c r="H46" s="28"/>
@@ -7843,7 +7890,7 @@
       <c r="A47" s="75"/>
       <c r="B47" s="87"/>
       <c r="C47" s="87"/>
-      <c r="D47" s="74" t="s">
+      <c r="D47" s="80" t="s">
         <v>200</v>
       </c>
       <c r="E47" s="40" t="s">
@@ -8016,7 +8063,7 @@
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
-      <c r="D52" s="74" t="s">
+      <c r="D52" s="80" t="s">
         <v>175</v>
       </c>
       <c r="E52" s="45" t="s">
@@ -8193,7 +8240,7 @@
       <c r="E57" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="F57" s="91" t="s">
+      <c r="F57" s="88" t="s">
         <v>126</v>
       </c>
       <c r="G57" s="89" t="s">
@@ -8224,7 +8271,7 @@
       <c r="A58" s="75"/>
       <c r="B58" s="87"/>
       <c r="C58" s="87"/>
-      <c r="D58" s="92" t="s">
+      <c r="D58" s="90" t="s">
         <v>214</v>
       </c>
       <c r="E58" s="40" t="s">
@@ -8387,7 +8434,7 @@
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
-      <c r="D63" s="74" t="s">
+      <c r="D63" s="80" t="s">
         <v>175</v>
       </c>
       <c r="E63" s="24"/>
@@ -8538,10 +8585,10 @@
       <c r="E68" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="F68" s="91" t="s">
+      <c r="F68" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="G68" s="74" t="s">
+      <c r="G68" s="80" t="s">
         <v>219</v>
       </c>
     </row>
@@ -8549,7 +8596,7 @@
       <c r="A69" s="75"/>
       <c r="B69" s="87"/>
       <c r="C69" s="87"/>
-      <c r="D69" s="74" t="s">
+      <c r="D69" s="80" t="s">
         <v>220</v>
       </c>
       <c r="E69" s="34" t="s">
@@ -8612,7 +8659,7 @@
       <c r="A74" s="24"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
-      <c r="D74" s="74" t="s">
+      <c r="D74" s="80" t="s">
         <v>175</v>
       </c>
       <c r="E74" s="24"/>
@@ -9573,27 +9620,25 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:C59"/>
-    <mergeCell ref="F57:F66"/>
-    <mergeCell ref="G57:G66"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:C70"/>
-    <mergeCell ref="F68:F77"/>
-    <mergeCell ref="G68:G77"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:C48"/>
-    <mergeCell ref="G46:G55"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="F48:F55"/>
-    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="F14:F22"/>
+    <mergeCell ref="G14:G22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="F24:F33"/>
     <mergeCell ref="G25:G33"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="B34:C34"/>
@@ -9603,25 +9648,27 @@
     <mergeCell ref="F37:F44"/>
     <mergeCell ref="G37:G44"/>
     <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="F24:F33"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="F14:F22"/>
-    <mergeCell ref="G14:G22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:C48"/>
+    <mergeCell ref="G46:G55"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="F48:F55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:C70"/>
+    <mergeCell ref="F68:F77"/>
+    <mergeCell ref="G68:G77"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:C59"/>
+    <mergeCell ref="F57:F66"/>
+    <mergeCell ref="G57:G66"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="D63:D66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
@@ -12871,14 +12918,14 @@
       <c r="A1" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="107" t="s">
         <v>231</v>
       </c>
       <c r="C1" s="99"/>
       <c r="D1" s="84"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="106" t="s">
         <v>232</v>
       </c>
       <c r="B2" s="100" t="s">
@@ -12894,7 +12941,7 @@
       <c r="D3" s="105"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="106" t="s">
         <v>234</v>
       </c>
       <c r="B4" s="100" t="s">
@@ -12913,14 +12960,14 @@
       <c r="A6" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="98" t="s">
         <v>237</v>
       </c>
       <c r="C6" s="99"/>
       <c r="D6" s="84"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="106" t="s">
         <v>238</v>
       </c>
       <c r="B7" s="100" t="s">
@@ -12939,7 +12986,7 @@
       <c r="A9" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="98" t="s">
         <v>241</v>
       </c>
       <c r="C9" s="99"/>
@@ -12949,14 +12996,14 @@
       <c r="A10" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="108" t="s">
         <v>243</v>
       </c>
       <c r="C10" s="99"/>
       <c r="D10" s="84"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="106" t="s">
         <v>244</v>
       </c>
       <c r="B11" s="100" t="s">
@@ -12975,7 +13022,7 @@
       <c r="A13" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="98" t="s">
         <v>247</v>
       </c>
       <c r="C13" s="99"/>
@@ -12985,7 +13032,7 @@
       <c r="A14" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="98" t="s">
         <v>249</v>
       </c>
       <c r="C14" s="99"/>
@@ -13980,20 +14027,20 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D12"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
